--- a/BiddingQuantities.xlsx
+++ b/BiddingQuantities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/2024 Fall/IE492-Electricity-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0226E-6A2A-F64E-916C-32D898BD348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F3A84-9C6E-A746-ACF6-28EE742FCF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{02AB118A-9D15-3445-9FA1-39510F6F8703}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{02AB118A-9D15-3445-9FA1-39510F6F8703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Consumer1</t>
+  </si>
+  <si>
+    <t>Consumer1_Price</t>
   </si>
 </sst>
 </file>
@@ -677,24 +680,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B7972B-9C90-294D-94AD-32494B8837D8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +707,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -715,8 +721,11 @@
       <c r="C2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44927.041666666664</v>
       </c>
@@ -726,8 +735,11 @@
       <c r="C3">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44927.08333321759</v>
       </c>
@@ -737,8 +749,11 @@
       <c r="C4">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44927.124999826388</v>
       </c>
@@ -748,8 +763,11 @@
       <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44927.166666435187</v>
       </c>
@@ -759,8 +777,11 @@
       <c r="C6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44927.208333043978</v>
       </c>
@@ -770,8 +791,11 @@
       <c r="C7">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44927.249999652777</v>
       </c>
@@ -781,8 +805,11 @@
       <c r="C8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44927.291666261575</v>
       </c>
@@ -792,8 +819,11 @@
       <c r="C9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44927.333332870374</v>
       </c>
@@ -803,8 +833,11 @@
       <c r="C10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44927.374999479165</v>
       </c>
@@ -814,8 +847,11 @@
       <c r="C11">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44927.416666087964</v>
       </c>
@@ -825,8 +861,11 @@
       <c r="C12">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44927.458332696762</v>
       </c>
@@ -836,8 +875,11 @@
       <c r="C13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44927.499999305554</v>
       </c>
@@ -847,8 +889,11 @@
       <c r="C14">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44927.541665914352</v>
       </c>
@@ -858,8 +903,11 @@
       <c r="C15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44927.583332523151</v>
       </c>
@@ -868,6 +916,9 @@
       </c>
       <c r="C16">
         <v>80</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/BiddingQuantities.xlsx
+++ b/BiddingQuantities.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/2024 Fall/IE492-Electricity-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F3A84-9C6E-A746-ACF6-28EE742FCF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675AFB41-9C96-9141-8666-3457799C4094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{02AB118A-9D15-3445-9FA1-39510F6F8703}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{02AB118A-9D15-3445-9FA1-39510F6F8703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sim2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,21 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Coal1</t>
+    <t>GasPlant1</t>
   </si>
   <si>
-    <t>Gas1</t>
+    <t>CoalPlant1</t>
   </si>
   <si>
-    <t>Consumer1</t>
+    <t>HydroPlant1</t>
   </si>
   <si>
-    <t>Consumer1_Price</t>
+    <t>ZeroBidders</t>
   </si>
 </sst>
 </file>
@@ -431,10 +430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42FD3CF-19C6-F548-A839-0BECF398380C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,7 +447,7 @@
     <col min="17" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +460,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -476,7 +478,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44927.041666666664</v>
       </c>
@@ -490,7 +492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44927.08333321759</v>
       </c>
@@ -504,7 +506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44927.124999826388</v>
       </c>
@@ -518,7 +520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44927.166666435187</v>
       </c>
@@ -532,7 +534,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44927.208333043978</v>
       </c>
@@ -546,7 +548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44927.249999652777</v>
       </c>
@@ -560,7 +562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44927.291666261575</v>
       </c>
@@ -574,7 +576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44927.333332870374</v>
       </c>
@@ -588,7 +590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44927.374999479165</v>
       </c>
@@ -602,7 +604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44927.416666087964</v>
       </c>
@@ -616,7 +618,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44927.458332696762</v>
       </c>
@@ -630,7 +632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44927.499999305554</v>
       </c>
@@ -644,7 +646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44927.541665914352</v>
       </c>
@@ -658,7 +660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44927.583332523151</v>
       </c>
@@ -676,252 +678,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B7972B-9C90-294D-94AD-32494B8837D8}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44927.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>130</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44927.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44927.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44927.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44927.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44927.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44927.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>120</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44927.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>120</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44927.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>130</v>
-      </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44927.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>140</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44927.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44927.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>120</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44927.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>110</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44927.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BiddingQuantities.xlsx
+++ b/BiddingQuantities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/2024 Fall/IE492-Electricity-Markets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/IE492-Electricity-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675AFB41-9C96-9141-8666-3457799C4094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67ABD08-0B77-8A4F-987B-C756D33FC199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{02AB118A-9D15-3445-9FA1-39510F6F8703}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,6 +477,9 @@
       <c r="D2">
         <v>120</v>
       </c>
+      <c r="E2">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -491,6 +494,9 @@
       <c r="D3">
         <v>130</v>
       </c>
+      <c r="E3">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -505,6 +511,9 @@
       <c r="D4">
         <v>140</v>
       </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -519,6 +528,9 @@
       <c r="D5">
         <v>100</v>
       </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -533,6 +545,9 @@
       <c r="D6">
         <v>120</v>
       </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -547,6 +562,9 @@
       <c r="D7">
         <v>110</v>
       </c>
+      <c r="E7">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -561,6 +579,9 @@
       <c r="D8">
         <v>80</v>
       </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -575,6 +596,9 @@
       <c r="D9">
         <v>120</v>
       </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -589,6 +613,9 @@
       <c r="D10">
         <v>120</v>
       </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -603,6 +630,9 @@
       <c r="D11">
         <v>130</v>
       </c>
+      <c r="E11">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -617,6 +647,9 @@
       <c r="D12">
         <v>140</v>
       </c>
+      <c r="E12">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -631,6 +664,9 @@
       <c r="D13">
         <v>100</v>
       </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -645,6 +681,9 @@
       <c r="D14">
         <v>120</v>
       </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -659,6 +698,9 @@
       <c r="D15">
         <v>110</v>
       </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -671,6 +713,9 @@
         <v>80</v>
       </c>
       <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
         <v>80</v>
       </c>
     </row>
